--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-cafemesra.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-cafemesra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>locator_town</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NPE TAMAN DESA</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,8 +468,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EAST WEST LINK</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -472,8 +485,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D. JAYA 2</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -487,8 +502,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>R&amp;R AWAN BESAR</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -502,8 +519,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JALAN KOLAM AYER LAMA</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -517,8 +536,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ALAM DAMAI</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -532,8 +553,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TAMAN PERMAI JAYA</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -547,8 +570,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BT 6 JALAN IPOH</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -562,8 +587,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>KOTA DAMANSARA 2</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -577,8 +604,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ARA DAMANSARA</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -592,8 +621,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GRAND SAGA</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -607,8 +638,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>USJ 1</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -622,8 +655,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SUBANG</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -637,8 +672,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GLENMARIE TTDI JAYA</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -652,8 +689,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TAMAN EQUINE</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -667,8 +706,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>USJ 20</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -682,8 +723,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LDP PUCHONG UTAMA</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -697,8 +740,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TAMAN ALAM MEGA</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -712,227 +757,529 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OLAK LEMPIT</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Lot Pt 4024 Hsm 5694 Mk Tanjung 12, Olak Lempit, 42700 Banting, Selangor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BDR BARU NILAI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lot 9252 Bandar Baru Nilai Mukim Labu, 71800 Nilai, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PRIMA SAUJANA 1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sublot D, Prima Saujana, Mk Kajang, 43000 Kajang, Selangor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KLIA 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lot Pt 3906, Jalan Terminal, Klia, 64000 Sepang, Selangor</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PERSIARAN KAYANGAN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lot 12 Off Persiaran Kayangan Seks 7 Shah Alam, 40000 Shah Alam, Selangor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Subang Jaya, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NKVE KLANG BOUND</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>New Klang Valley Expressway (Nkve), Bukit Raja Toll (Klang Bound), Klang, 40000 Klang, Selangor</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Subang Jaya, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BUKIT TINGGI 1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Part Of Lot 7725 Bandar Bukit Tinggi Klang Selangor, 41000 Klang, Selangor</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Subang Jaya, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BUKIT TINGGI 2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Lot 1 Bandar Bukit Tinggi Klang Selangor, 41200 Klang, Selangor</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Subang Jaya, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PUNCAK ALAM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pt 1933 Bandar Puncak Alam, Mukim Ijok, Kuala Selangor, 42300 Kuala Selangor, Selangor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Klang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BUKIT BERUNTUNG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lot 10496, Bandar Bukit Beruntung, Mukim Serendah Ulu Selangor, 48200 Ulu Selangor, Selangor</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Selayang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>S2 CITY PARK</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lot C, Part Of Lot Pt 6283 Hs(D) 109226, Bandar Seremban 2, Mukim Rasah, 70300 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Semenyih, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SENAWANG 2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lot 2172 , Jln Tampin-Seremban, Mukim Rantau, 70450 Seremban, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Semenyih, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PEKAN LUKUT</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lot 4729 - 4734 &amp; Lot 4735 - 4740, Pekan Lukut, 71050 Port Dickson, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tanjung Sepat, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>JALAN LINGKARAN DALAM</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Part Of Lot 823 G 72225 Inner Ring Road, Mukim Bandar, 80100 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TAMAN BAYU PUTERI</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Lot Ptd 148144 Taman Bayu Putri Bandar Baru Permas Jaya, 81100 Johor Bharu, Johor</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Part Of Lot 823 G 72225 Inner Ring Road, Mukim Bandar, 80100 Johor Bharu, Johor</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TAMAN NUSA BESTARI</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Lot Ptd 12351 Taman Tan Sri Yaakob Mukim Pulai, 81200 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BUKIT INDAH 1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Lot 2595, Bukit Indah 1, 81200 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Lot C, Part Of Lot Pt 6283 Hs(D) 109226, Bandar Seremban 2, Mukim Rasah, 70300 Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Lot 2172 , Jln Tampin-Seremban, Mukim Rantau, 70450 Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Lot 9252 Bandar Baru Nilai Mukim Labu, 71800 Nilai, Negeri Sembilan</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AIR KEROH RSA NORTH BOUND</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lebuhraya Senawang - Air-Keroh (North Bound), 78000 Alor Gajah, Melaka</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tangkak, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PEDAS LINGGI LAYBY NORTHBOUND</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Km 225 Pedas-Linggi Layby, Plus Highway (Northbound), 70400 Rembau, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Lot 4729 - 4734 &amp; Lot 4735 - 4740, Pekan Lukut, 71050 Port Dickson, Negeri Sembilan</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Sublot D, Prima Saujana, Mk Kajang, 43000 Kajang, Selangor</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Lot Pt 3906, Jalan Terminal, Klia, 64000 Sepang, Selangor</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Masjid Tanah, Malacca</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>KM 16 JALAN GAMBANG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lot 105826, Batu 10, Jalan Gambang (Arah Kl) Mukim Kuala Kuantan, 25150 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BATU RAKIT (GONG POK JIN)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Lot 6820, Gm 89, Gong Pak Jin, Mukim Batu Pahat, 21300 Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BUKIT PAYUNG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Lot 52310, Kg. Padang Menkuang, Bukit Payung, 21400, Marang Terengganu, 21400 Marang, Terengganu</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PAKA 2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lot 2475 Gm 5709 Mukim Paka Daerah Dungun, 23100 Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Dungun, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TOK KENALI</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>S/55, Lot Pt 416, 372 Kampung Pulau, Mukim Pulau, Daerah Kubang Kerian, 16150 Kota Bharu, Kelantan</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Tumpat, Kelantan</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CHETOK</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>PT 6913 HSM 4815 KG Beting Chetok, Mukim Chetok, 17040 Pasir Mas, Kelantan, 17040 Pasiir Mas, Kelantan</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Tumpat, Kelantan</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PERSIARAN RAYA GUA MUSANG</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lebuhraya Kuala Lumpur - Gua Musang, Bandar Baru Gua Musang, 18300 Gua Musang, Kelantan</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Gua Musang, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SUNWAY TAMBUN</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lot Pt 303545, Sunway City Tambun, Mukim Hulu Kinta, 31150 Kinta, Perak</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SPG PULAI ARAH UTARA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Simpang Pulai Layby Lebuhraya Plus (Arah Utara), 31300 Ipoh, Perak</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UTP TRONOH</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Lot Pt 13157 Grn 27603, Universiti Teknologi Petronas, Lebuhraya Ipoh-Lumut (Arah Ipoh), Mukim Bota, 31570 Ipoh Tengah, Perak</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>KAMPUNG KEDAH</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Lot Pt 3491 Hs(M) 1307 Kg Kedah, Mukim Parit Buntar, District Of Kerian, Perak, 34200 Parit Buntar, Perak</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Bandar Baharu, Kedah</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Taiping, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BKE 2</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Lot No.3167 Hs (M) Mukim 4, 13700 Seberang Jaya, Pulau Pinang</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Bandar Baharu, Kedah</t>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Parit Buntar, Perak</t>
         </is>
       </c>
     </row>
